--- a/biology/Zoologie/Andrei_Alexsandrovitch_Legalov/Andrei_Alexsandrovitch_Legalov.xlsx
+++ b/biology/Zoologie/Andrei_Alexsandrovitch_Legalov/Andrei_Alexsandrovitch_Legalov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrei Alexsandrovitch Legalov, russe : Андрей Александрович Легалов, (né le 13 novembre 1972 à Novosibirsk) est zoologiste russe et un paléoentomologiste.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en biologie, chef du laboratoire de phylogénie et de faunogenèse de l'Institut de systématique et d'écologie animales de la branche sibérienne de l'Académie russe des sciences, paléoentomologiste, coléoptérologue. Systématique de la faune.
 Il a décrit de nombreux taxons[note 1].
@@ -543,7 +557,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1990, il est diplômé de l'école secondaire n ° 54.
 Legalov a étudié à l'Université agricole d'État de Novossibirsk de 1990 à 1995. Après avoir obtenu son diplôme, il a étudié de 1995 à 1998 à l'Institut de systématique et d'écologie animales du département sibérien de l'Académie russe des sciences. Il se spécialise dans les coléoptères (Coleoptera) et en particulier les charançons du feuillage (Attelabidae) et les charançons (Curculionoidea). Il est l'auteur de centaines d'espèces de ces groupes.
@@ -576,7 +592,9 @@
           <t>Activité scientifique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, il soutient une thèse de doctorat sur le thème « Répartition latitude-zonale des charançons (Coleoptera, Curculionidae) dans les plaines de Sibérie occidentale, du Kazakhstan et d'Asie centrale » dans la spécialité Entomologie à l'Institute of Systematics and Ecology of Animals (d) sous la supervision de Vyacheslav Mordkovich (d).
 En 2005, il soutient la thèse de doctorat « Coleoptera : Rhynchitidae, Attelabidae) de la faune mondiale (morphologie, phylogénie, taxonomie, écologie) » dans la spécialité Entomologie à l'Institute of Systematics and Ecology of Animals avec comme consultant scientifique Vyacheslav Mordkovich.
@@ -609,7 +627,9 @@
           <t>Espèces dédiées à A. A. Legalov</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste non exhaustive :
 Arra legalovi Peris, Davis &amp; Delclos, 2014 - de la famille des coléoptères des fleurs (Nemonychidae)
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 (en) 2001 « Revision der holarktischen Auletini (Coleoptera, Attelabidae) », Russian Entomological Journal, vol. 10.
